--- a/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
+++ b/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{2A931FD9-0909-43ED-BB1D-954601C661AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7348B6-FE31-4701-AABA-656210F12670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -88,6 +88,12 @@
   <si>
     <t>Diseño de mapa de navegación</t>
   </si>
+  <si>
+    <t>MEMORIA</t>
+  </si>
+  <si>
+    <t>Portada, Resumen y Justificación</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4B8FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,43 +702,43 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,31 +792,6 @@
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF391059"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -882,6 +869,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF391059"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -953,9 +965,11 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFC4B8FE"/>
+      <color rgb="FFFFFDB7"/>
+      <color rgb="FFDEFFB7"/>
       <color rgb="FFE1FDB9"/>
       <color rgb="FF391059"/>
-      <color rgb="FFC4B8FE"/>
       <color rgb="FFF2D7CE"/>
       <color rgb="FFC2E3FE"/>
       <color rgb="FFD9C1FF"/>
@@ -1027,12 +1041,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="3">
-  <autoFilter ref="D3:F13" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="D3:F18" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{844160B8-1ABC-4FDE-A15F-3AFEF16D1615}" name="Fecha" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A5E8FD62-FCE4-4FAF-B364-C9A1B846CE91}" name="Tarea" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{77E83430-8523-45F9-9CB0-4C19D415666D}" name="Horas" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{844160B8-1ABC-4FDE-A15F-3AFEF16D1615}" name="Fecha" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A5E8FD62-FCE4-4FAF-B364-C9A1B846CE91}" name="Tarea" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{77E83430-8523-45F9-9CB0-4C19D415666D}" name="Horas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1241,10 +1255,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J37"/>
+  <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1293,16 +1307,16 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>45356</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
       <c r="G4" s="3"/>
@@ -1310,27 +1324,27 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="D5" s="19">
+      <c r="B5" s="25"/>
+      <c r="D5" s="17">
         <v>45356</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="D6" s="19">
+      <c r="B6" s="25"/>
+      <c r="D6" s="17">
         <v>45361</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>2</v>
       </c>
       <c r="G6" s="4"/>
@@ -1338,14 +1352,14 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="D7" s="19">
+      <c r="B7" s="25"/>
+      <c r="D7" s="17">
         <v>45366</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>0.5</v>
       </c>
       <c r="G7" s="4"/>
@@ -1353,7 +1367,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15">
@@ -1370,7 +1384,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
+      <c r="B9" s="26"/>
       <c r="D9" s="15">
         <v>45392</v>
       </c>
@@ -1385,7 +1399,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17"/>
+      <c r="B10" s="26"/>
       <c r="D10" s="15">
         <v>45393</v>
       </c>
@@ -1400,7 +1414,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17"/>
+      <c r="B11" s="26"/>
       <c r="D11" s="15">
         <v>45394</v>
       </c>
@@ -1415,7 +1429,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17"/>
+      <c r="B12" s="26"/>
       <c r="D12" s="15">
         <v>45396</v>
       </c>
@@ -1430,16 +1444,14 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="B13" s="24"/>
+      <c r="D13" s="19">
         <v>45398</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
@@ -1447,65 +1459,74 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
-      <c r="D14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26">
-        <f>SUBTOTAL(109,Tabla1[Horas])</f>
-        <v>18.5</v>
-      </c>
+      <c r="B14" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="29"/>
+      <c r="D16" s="27">
+        <v>45406</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="23">
+        <f>SUBTOTAL(109,Tabla1[Horas])</f>
+        <v>20.5</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="29"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1514,7 +1535,6 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="29"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1523,7 +1543,6 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="29"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1532,7 +1551,6 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="29"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1624,6 +1642,31 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1648,24 +1691,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1873,10 +1898,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1900,21 +1955,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
+++ b/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7348B6-FE31-4701-AABA-656210F12670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC07E1-BA70-4C13-B52C-E88551E374DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Portada, Resumen y Justificación</t>
+  </si>
+  <si>
+    <t>Creación proyecto, navegación, login</t>
   </si>
 </sst>
 </file>
@@ -726,19 +729,19 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,8 +1260,8 @@
   </sheetPr>
   <dimension ref="B1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="17">
@@ -1324,7 +1327,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="D5" s="17">
         <v>45356</v>
       </c>
@@ -1337,7 +1340,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="D6" s="17">
         <v>45361</v>
       </c>
@@ -1352,7 +1355,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="D7" s="17">
         <v>45366</v>
       </c>
@@ -1367,7 +1370,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15">
@@ -1384,7 +1387,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26"/>
+      <c r="B9" s="29"/>
       <c r="D9" s="15">
         <v>45392</v>
       </c>
@@ -1399,7 +1402,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
+      <c r="B10" s="29"/>
       <c r="D10" s="15">
         <v>45393</v>
       </c>
@@ -1414,7 +1417,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26"/>
+      <c r="B11" s="29"/>
       <c r="D11" s="15">
         <v>45394</v>
       </c>
@@ -1429,7 +1432,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
+      <c r="B12" s="29"/>
       <c r="D12" s="15">
         <v>45396</v>
       </c>
@@ -1462,9 +1465,15 @@
       <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="19">
+        <v>45410</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20">
+        <v>4</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1479,14 +1488,14 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="29"/>
-      <c r="D16" s="27">
+      <c r="B16" s="27"/>
+      <c r="D16" s="25">
         <v>45406</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <v>2</v>
       </c>
       <c r="G16" s="4"/>
@@ -1494,21 +1503,21 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1520,7 +1529,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="23">
         <f>SUBTOTAL(109,Tabla1[Horas])</f>
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1691,6 +1700,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1898,40 +1925,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1955,9 +1952,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
+++ b/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC07E1-BA70-4C13-B52C-E88551E374DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF856B3-816B-4C77-8A1B-147C3749990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Creación proyecto, navegación, login</t>
+  </si>
+  <si>
+    <t>Desarrollo del proyecto - a) y b)</t>
+  </si>
+  <si>
+    <t>Registro, Home, funciones bd</t>
   </si>
 </sst>
 </file>
@@ -968,8 +974,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFFDB7"/>
       <color rgb="FFC4B8FE"/>
-      <color rgb="FFFFFDB7"/>
       <color rgb="FFDEFFB7"/>
       <color rgb="FFE1FDB9"/>
       <color rgb="FF391059"/>
@@ -1044,8 +1050,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="D3:F18" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="D3:F23" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{844160B8-1ABC-4FDE-A15F-3AFEF16D1615}" name="Fecha" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5E8FD62-FCE4-4FAF-B364-C9A1B846CE91}" name="Tarea" dataDxfId="1"/>
@@ -1258,10 +1264,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J42"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1410,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1462,9 +1468,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="24"/>
       <c r="D14" s="19">
         <v>45410</v>
       </c>
@@ -1479,98 +1483,117 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19">
+        <v>45417</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="20">
+        <v>5</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="27"/>
-      <c r="D16" s="25">
-        <v>45406</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="26">
-        <v>2</v>
-      </c>
+      <c r="B16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="25">
+        <v>45406</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="26">
+        <v>2</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="23">
-        <f>SUBTOTAL(109,Tabla1[Horas])</f>
-        <v>24.5</v>
+      <c r="B19" s="26"/>
+      <c r="D19" s="25">
+        <v>45412</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="26">
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="27"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="23">
+        <f>SUBTOTAL(109,Tabla1[Horas])</f>
+        <v>33.5</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1676,6 +1699,31 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1700,24 +1748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1925,10 +1955,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1952,21 +2012,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
+++ b/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF856B3-816B-4C77-8A1B-147C3749990B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C805FF-CBC2-47AE-BB1A-398B232DD497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Registro, Home, funciones bd</t>
+  </si>
+  <si>
+    <t>Avances en multiples pantallas</t>
   </si>
 </sst>
 </file>
@@ -1266,8 +1269,8 @@
   </sheetPr>
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1501,9 +1504,15 @@
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="D16" s="19">
+        <v>45424</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="20">
+        <v>7</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1592,7 +1601,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="23">
         <f>SUBTOTAL(109,Tabla1[Horas])</f>
-        <v>33.5</v>
+        <v>40.5</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1748,6 +1757,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1955,40 +1982,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2012,9 +2009,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
+++ b/Documentation/Project_Tracking/Task_Hour_Recount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C805FF-CBC2-47AE-BB1A-398B232DD497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD304F-07F6-491C-B438-C6A155D109E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Avances en multiples pantallas</t>
+  </si>
+  <si>
+    <t>Ultimas modificaciones del proyecto</t>
+  </si>
+  <si>
+    <t>Avances en multiples apartados</t>
+  </si>
+  <si>
+    <t>Ultimas modificaciones</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +285,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -666,7 +683,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -751,6 +768,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,8 +1073,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="D3:F23" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}" name="Tabla1" displayName="Tabla1" ref="D3:F21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="D3:F21" xr:uid="{FDFFDC23-1EA5-434F-95D6-B2BD6D52CBDD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{844160B8-1ABC-4FDE-A15F-3AFEF16D1615}" name="Fecha" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5E8FD62-FCE4-4FAF-B364-C9A1B846CE91}" name="Tarea" dataDxfId="1"/>
@@ -1267,10 +1287,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J47"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1519,9 +1539,15 @@
     </row>
     <row r="17" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="D17" s="19">
+        <v>45430</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1542,7 +1568,9 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="26"/>
+      <c r="B19" s="30" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="25">
         <v>45412</v>
       </c>
@@ -1558,51 +1586,59 @@
     </row>
     <row r="20" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="D20" s="25">
+        <v>45430</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="26">
+        <v>3</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="D21" s="25">
+        <v>45431</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="26">
+        <v>2</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="23">
+        <f>SUBTOTAL(109,Tabla1[Horas])</f>
+        <v>50.5</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="23">
-        <f>SUBTOTAL(109,Tabla1[Horas])</f>
-        <v>40.5</v>
-      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1723,16 +1759,6 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="4:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1757,24 +1783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1982,10 +1990,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2009,21 +2047,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1227E31-123E-44EE-A422-2705DF3A5917}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>